--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2790,7 +2793,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>1744</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2798,7 +2801,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>1422</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2806,7 +2809,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>791</v>
+        <v>879</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2814,7 +2817,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>2040</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2822,7 +2825,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>1314</v>
+        <v>928</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2830,7 +2833,15 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>1095</v>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2844,6 +2847,14 @@
         <v>604</v>
       </c>
     </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2855,6 +2858,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Saldo de balanza comercial 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2866,6 +2869,14 @@
         <v>79</v>
       </c>
     </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>-352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
